--- a/docs/use_cases_table.xlsx
+++ b/docs/use_cases_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leesihoney/Documents/CMU/Fall 2018/67-272/project/phase5/GCPD_P5_Starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E04657-2F37-494B-9F34-D74D8322942B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BC49C-4F0A-4D48-9751-35ED2E48C2D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{A6C6A993-47E4-374C-8032-E2529EFB3F8A}"/>
+    <workbookView xWindow="480" yWindow="520" windowWidth="28040" windowHeight="16420" xr2:uid="{A6C6A993-47E4-374C-8032-E2529EFB3F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Commish</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>The commish user can view a home page with appropriate content needed to give the user an overview of the system</t>
+  </si>
+  <si>
+    <t>이거해야함</t>
+  </si>
+  <si>
+    <t>이거 second confirmation을 controller에서 또 할 수 있는 건지?</t>
   </si>
 </sst>
 </file>
@@ -277,12 +283,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,13 +309,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -620,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D444E4C6-8A79-9145-96C4-2754919D5C5E}">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
@@ -780,7 +800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
@@ -789,7 +809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -798,7 +818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -806,14 +826,17 @@
       <c r="F20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -821,32 +844,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -860,7 +883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
@@ -871,21 +894,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>48</v>
       </c>
@@ -895,7 +918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
@@ -905,7 +928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
@@ -915,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
@@ -925,14 +948,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
@@ -942,7 +965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>58</v>
       </c>
@@ -952,7 +975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>60</v>
       </c>
@@ -962,34 +985,35 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="F44" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="5"/>
+      <c r="F44" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
@@ -998,16 +1022,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="F46" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J46" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>71</v>
       </c>
@@ -1016,7 +1044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
@@ -1091,24 +1119,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B1048576:D1048576"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:C15"/>
@@ -1125,9 +1135,28 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>